--- a/spo2models.xlsx
+++ b/spo2models.xlsx
@@ -73,15 +73,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>20C Br J Anaesth</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>50C Br J Anaesth</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>0C Br J Anaesth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reynolds, 20 C</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -694,11 +694,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="293215616"/>
-        <c:axId val="273101952"/>
+        <c:axId val="265851648"/>
+        <c:axId val="265853184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="293215616"/>
+        <c:axId val="265851648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -708,12 +708,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="273101952"/>
+        <c:crossAx val="265853184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="273101952"/>
+        <c:axId val="265853184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -724,7 +724,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293215616"/>
+        <c:crossAx val="265851648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -784,7 +784,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20C Br J Anaesth</c:v>
+                  <c:v>Reynolds, 20 C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1050,11 +1050,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="293318016"/>
-        <c:axId val="294847616"/>
+        <c:axId val="266148480"/>
+        <c:axId val="266158464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="293318016"/>
+        <c:axId val="266148480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,12 +1064,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="294847616"/>
+        <c:crossAx val="266158464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="294847616"/>
+        <c:axId val="266158464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,7 +1080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293318016"/>
+        <c:crossAx val="266148480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1401,11 +1401,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="293271808"/>
-        <c:axId val="293339136"/>
+        <c:axId val="266183424"/>
+        <c:axId val="266184960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="293271808"/>
+        <c:axId val="266183424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,12 +1415,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293339136"/>
+        <c:crossAx val="266184960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="293339136"/>
+        <c:axId val="266184960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293271808"/>
+        <c:crossAx val="266183424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1491,7 +1491,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20C Br J Anaesth</c:v>
+                  <c:v>Reynolds, 20 C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2502,11 +2502,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="293364864"/>
-        <c:axId val="293366400"/>
+        <c:axId val="266221440"/>
+        <c:axId val="266223616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="293364864"/>
+        <c:axId val="266221440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.2"/>
@@ -2548,12 +2548,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="293366400"/>
+        <c:crossAx val="266223616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="293366400"/>
+        <c:axId val="266223616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2591,7 +2591,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="293364864"/>
+        <c:crossAx val="266221440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3051,8 +3051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="M7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3208,13 +3208,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
